--- a/MBB_GMS_DATA_HoopsIQ.xlsx
+++ b/MBB_GMS_DATA_HoopsIQ.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waelivie/Desktop/MBB_performance_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0186B2-F37B-2E45-BB71-9DEBFDC3A8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72420D90-6736-7449-9F58-AAB164803E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="15120" activeTab="2" xr2:uid="{057F7D7D-5608-F942-87EB-FA2BD4F9B3BC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="15120" activeTab="1" xr2:uid="{057F7D7D-5608-F942-87EB-FA2BD4F9B3BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="j" sheetId="72" r:id="rId1"/>
-    <sheet name="Sheet6" sheetId="73" r:id="rId2"/>
+    <sheet name="j" sheetId="72" state="hidden" r:id="rId1"/>
+    <sheet name="FourFactors" sheetId="73" r:id="rId2"/>
     <sheet name="TeamStats_2_9_20" sheetId="68" r:id="rId3"/>
     <sheet name="PlayerStats_2_9_20" sheetId="70" r:id="rId4"/>
     <sheet name="TeamStats_11_08_19" sheetId="1" r:id="rId5"/>
@@ -63,8 +63,8 @@
     <sheet name="PlayerStats_2_01_20" sheetId="4" r:id="rId48"/>
     <sheet name="TeamStats_2_06_20" sheetId="45" r:id="rId49"/>
     <sheet name="PlayerStats_2_06_20" sheetId="46" r:id="rId50"/>
-    <sheet name="Sheet37" sheetId="47" r:id="rId51"/>
-    <sheet name="Sheet38" sheetId="48" r:id="rId52"/>
+    <sheet name="TeamStats_2_13_20" sheetId="47" r:id="rId51"/>
+    <sheet name="PlayerStats_2_13_20" sheetId="48" r:id="rId52"/>
     <sheet name="Sheet39" sheetId="49" r:id="rId53"/>
     <sheet name="Sheet44" sheetId="54" r:id="rId54"/>
     <sheet name="Sheet57" sheetId="67" r:id="rId55"/>
@@ -81,7 +81,7 @@
     <sheet name="Sheet55" sheetId="65" r:id="rId66"/>
     <sheet name="Sheet56" sheetId="66" r:id="rId67"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="143">
   <si>
     <t>Team</t>
   </si>
@@ -426,6 +426,108 @@
   </si>
   <si>
     <t>Opponents</t>
+  </si>
+  <si>
+    <t>UCSanDiego@Chico</t>
+  </si>
+  <si>
+    <t>CalStateStanislaus@UCSanDiego</t>
+  </si>
+  <si>
+    <t>HumboldtState@UCSanDiego</t>
+  </si>
+  <si>
+    <t>UCSanDiego@SonomaState</t>
+  </si>
+  <si>
+    <t>UCSanDiego@SanFranciscoSt</t>
+  </si>
+  <si>
+    <t>CSSanBernardino@UCSanDiego</t>
+  </si>
+  <si>
+    <t>CalPolyPomona@UCSanDiego</t>
+  </si>
+  <si>
+    <t>UCSanDiego@HumboldtState</t>
+  </si>
+  <si>
+    <t>UCSanDiego@CalStateStanislaus</t>
+  </si>
+  <si>
+    <t>CalStateEastBay@UCSanDiego</t>
+  </si>
+  <si>
+    <t>CSMonterey@UCSanDiego</t>
+  </si>
+  <si>
+    <t>UCSanDiego@CalPolyPomona</t>
+  </si>
+  <si>
+    <t>SonomaState@UCSanDiego</t>
+  </si>
+  <si>
+    <t>UCSanDiego@CalStateDomHills</t>
+  </si>
+  <si>
+    <t>Chico@UCSanDiego</t>
+  </si>
+  <si>
+    <t>UCSanDiego@NotreDameCA</t>
+  </si>
+  <si>
+    <t>UCSanDiego@HolyNames</t>
+  </si>
+  <si>
+    <t>UCSanDiego@CSSanBernardino</t>
+  </si>
+  <si>
+    <t>Cal State SM@UCSanDiego</t>
+  </si>
+  <si>
+    <t>PointLoma@UCSanDiego</t>
+  </si>
+  <si>
+    <t>UCSanDiego@SaintMartin's</t>
+  </si>
+  <si>
+    <t>UCSanDiego@WesternWash</t>
+  </si>
+  <si>
+    <t>UCSanDiego@SimonFraser</t>
+  </si>
+  <si>
+    <t>AwayPts</t>
+  </si>
+  <si>
+    <t>HomePts</t>
+  </si>
+  <si>
+    <t>OppeFG%</t>
+  </si>
+  <si>
+    <t>OppFTR</t>
+  </si>
+  <si>
+    <t>OppORB%</t>
+  </si>
+  <si>
+    <t>OppTO%</t>
+  </si>
+  <si>
+    <t>GAME</t>
+  </si>
+  <si>
+    <t>UCSD Win</t>
+  </si>
+  <si>
+    <t>CalStateDomHills@UCSanDiego</t>
+  </si>
+  <si>
+    <t>UCSD_AVG_PTS_SPREAD</t>
+  </si>
+  <si>
+    <t>UCSDPointSpread</t>
   </si>
 </sst>
 </file>
@@ -3052,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B24C7D-F491-EA46-9728-E0CBE614D050}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AY1"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AQ3" activeCellId="3" sqref="AG3 AK3 AL3 AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5782,8 +5884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAB29D2-8BD9-2B45-8A16-0045C4E59B23}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AY1"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AQ3" activeCellId="3" sqref="AG3 AK3 AL3 AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8475,7 +8577,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AY1"/>
+      <selection activeCell="AQ3" activeCellId="3" sqref="AG3 AK3 AL3 AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10310,8 +10412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259928F6-31AD-8547-A09D-50030CD245DF}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AY1"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AQ3" activeCellId="3" sqref="AG3 AK3 AL3 AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12444,8 +12546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9B868E-112C-BB42-8856-A4B47B0C9CD1}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AY1"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AQ3" activeCellId="3" sqref="AG3 AK3 AL3 AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12922,12 +13024,1052 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E2EA92-B024-1446-90FC-F583F1D72229}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>88</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>55.9701492537313</v>
+      </c>
+      <c r="F2">
+        <v>20.8955223880597</v>
+      </c>
+      <c r="G2">
+        <v>16.2162162162162</v>
+      </c>
+      <c r="H2">
+        <v>14.285714285714199</v>
+      </c>
+      <c r="I2">
+        <v>51.6666666666666</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>11.764705882352899</v>
+      </c>
+      <c r="L2">
+        <v>20.731707317073099</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <f>AVERAGE(M2:M25)</f>
+        <v>17.458333333333332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3">
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>59.016393442622899</v>
+      </c>
+      <c r="F3">
+        <v>26.229508196721302</v>
+      </c>
+      <c r="G3">
+        <v>21.6216216216216</v>
+      </c>
+      <c r="H3">
+        <v>10.5263157894736</v>
+      </c>
+      <c r="I3">
+        <v>52.727272727272698</v>
+      </c>
+      <c r="J3">
+        <v>41.818181818181799</v>
+      </c>
+      <c r="K3">
+        <v>23.529411764705799</v>
+      </c>
+      <c r="L3">
+        <v>16.6666666666666</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4">
+        <v>73</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>45.161290322580598</v>
+      </c>
+      <c r="G4">
+        <v>24.390243902439</v>
+      </c>
+      <c r="H4">
+        <v>13.636363636363599</v>
+      </c>
+      <c r="I4">
+        <v>50.793650793650698</v>
+      </c>
+      <c r="J4">
+        <v>23.8095238095238</v>
+      </c>
+      <c r="K4">
+        <v>20.5128205128205</v>
+      </c>
+      <c r="L4">
+        <v>22.2222222222222</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>55.633802799999998</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11.2676056</v>
+      </c>
+      <c r="G5" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="I5" s="2">
+        <v>48.214285699999998</v>
+      </c>
+      <c r="J5" s="2">
+        <v>19.642857100000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>14.2857143</v>
+      </c>
+      <c r="L5" s="2">
+        <v>18.918918900000001</v>
+      </c>
+      <c r="M5" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6">
+        <v>92</v>
+      </c>
+      <c r="C6">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>63.846153846153797</v>
+      </c>
+      <c r="F6">
+        <v>18.4615384615384</v>
+      </c>
+      <c r="G6">
+        <v>27.272727272727199</v>
+      </c>
+      <c r="H6">
+        <v>11.538461538461499</v>
+      </c>
+      <c r="I6">
+        <v>45.0980392156862</v>
+      </c>
+      <c r="J6">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>23.684210526315699</v>
+      </c>
+      <c r="M6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7">
+        <v>81</v>
+      </c>
+      <c r="C7">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>60.784313725490101</v>
+      </c>
+      <c r="F7">
+        <v>47.058823529411697</v>
+      </c>
+      <c r="G7">
+        <v>16.6666666666666</v>
+      </c>
+      <c r="H7">
+        <v>15.068493150684899</v>
+      </c>
+      <c r="I7">
+        <v>37.037037037037003</v>
+      </c>
+      <c r="J7">
+        <v>40.740740740740698</v>
+      </c>
+      <c r="K7">
+        <v>25</v>
+      </c>
+      <c r="L7">
+        <v>17.948717948717899</v>
+      </c>
+      <c r="M7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8">
+        <v>59</v>
+      </c>
+      <c r="C8">
+        <v>87</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>60.169491525423702</v>
+      </c>
+      <c r="F8">
+        <v>37.288135593220296</v>
+      </c>
+      <c r="G8">
+        <v>2.9411764705882302</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>37.037037037037003</v>
+      </c>
+      <c r="J8">
+        <v>44.4444444444444</v>
+      </c>
+      <c r="K8">
+        <v>11.1111111111111</v>
+      </c>
+      <c r="L8">
+        <v>19.230769230769202</v>
+      </c>
+      <c r="M8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>58.653846153846096</v>
+      </c>
+      <c r="F9">
+        <v>23.076923076922998</v>
+      </c>
+      <c r="G9">
+        <v>24.137931034482701</v>
+      </c>
+      <c r="H9">
+        <v>16.176470588235201</v>
+      </c>
+      <c r="I9">
+        <v>49.056603773584897</v>
+      </c>
+      <c r="J9">
+        <v>9.4339622641509404</v>
+      </c>
+      <c r="K9">
+        <v>24.137931034482701</v>
+      </c>
+      <c r="L9">
+        <v>19.117647058823501</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10">
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>66.037735849056602</v>
+      </c>
+      <c r="F10">
+        <v>33.962264150943398</v>
+      </c>
+      <c r="G10">
+        <v>16.6666666666666</v>
+      </c>
+      <c r="H10">
+        <v>10.144927536231799</v>
+      </c>
+      <c r="I10">
+        <v>57.407407407407398</v>
+      </c>
+      <c r="J10">
+        <v>24.074074074074002</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>16.6666666666666</v>
+      </c>
+      <c r="M10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11">
+        <v>74</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>61.224489795918302</v>
+      </c>
+      <c r="F11">
+        <v>40.816326530612201</v>
+      </c>
+      <c r="G11">
+        <v>6.4516129032257998</v>
+      </c>
+      <c r="H11">
+        <v>18.0555555555555</v>
+      </c>
+      <c r="I11">
+        <v>43.137254901960702</v>
+      </c>
+      <c r="J11">
+        <v>43.137254901960702</v>
+      </c>
+      <c r="K11">
+        <v>23.529411764705799</v>
+      </c>
+      <c r="L11">
+        <v>23.456790123456699</v>
+      </c>
+      <c r="M11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12">
+        <v>73</v>
+      </c>
+      <c r="C12">
+        <v>76</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>55.454545454545404</v>
+      </c>
+      <c r="F12">
+        <v>32.727272727272698</v>
+      </c>
+      <c r="G12">
+        <v>10.344827586206801</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>47.540983606557297</v>
+      </c>
+      <c r="J12">
+        <v>31.1475409836065</v>
+      </c>
+      <c r="K12">
+        <v>20.5128205128205</v>
+      </c>
+      <c r="L12">
+        <v>12.5</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13">
+        <v>72</v>
+      </c>
+      <c r="C13">
+        <v>94</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>66.40625</v>
+      </c>
+      <c r="F13">
+        <v>18.75</v>
+      </c>
+      <c r="G13">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>9.0909090909090899</v>
+      </c>
+      <c r="I13">
+        <v>55</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>22.857142857142801</v>
+      </c>
+      <c r="L13">
+        <v>18.75</v>
+      </c>
+      <c r="M13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>66</v>
+      </c>
+      <c r="C14">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>52.0833333333333</v>
+      </c>
+      <c r="F14">
+        <v>41.6666666666666</v>
+      </c>
+      <c r="G14">
+        <v>24.137931034482701</v>
+      </c>
+      <c r="H14">
+        <v>22.972972972972901</v>
+      </c>
+      <c r="I14">
+        <v>46.938775510204003</v>
+      </c>
+      <c r="J14">
+        <v>30.612244897959101</v>
+      </c>
+      <c r="K14">
+        <v>12.1212121212121</v>
+      </c>
+      <c r="L14">
+        <v>23.287671232876701</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15">
+        <v>69</v>
+      </c>
+      <c r="C15">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>62.096774193548299</v>
+      </c>
+      <c r="F15">
+        <v>11.2903225806451</v>
+      </c>
+      <c r="G15">
+        <v>18.75</v>
+      </c>
+      <c r="H15">
+        <v>7.2463768115942004</v>
+      </c>
+      <c r="I15">
+        <v>61.224489795918302</v>
+      </c>
+      <c r="J15">
+        <v>22.4489795918367</v>
+      </c>
+      <c r="K15">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="L15">
+        <v>23.943661971830899</v>
+      </c>
+      <c r="M15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16">
+        <v>84</v>
+      </c>
+      <c r="C16">
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>73.469387755102005</v>
+      </c>
+      <c r="F16">
+        <v>28.571428571428498</v>
+      </c>
+      <c r="G16">
+        <v>18.181818181818102</v>
+      </c>
+      <c r="H16">
+        <v>11.1111111111111</v>
+      </c>
+      <c r="I16">
+        <v>52.631578947368403</v>
+      </c>
+      <c r="J16">
+        <v>10.5263157894736</v>
+      </c>
+      <c r="K16">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="L16">
+        <v>18.309859154929502</v>
+      </c>
+      <c r="M16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17">
+        <v>81</v>
+      </c>
+      <c r="C17">
+        <v>73</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>51.694915254237202</v>
+      </c>
+      <c r="F17">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="G17">
+        <v>25.714285714285701</v>
+      </c>
+      <c r="H17">
+        <v>16.455696202531598</v>
+      </c>
+      <c r="I17">
+        <v>67.272727272727195</v>
+      </c>
+      <c r="J17">
+        <v>18.181818181818102</v>
+      </c>
+      <c r="K17">
+        <v>12.5</v>
+      </c>
+      <c r="L17">
+        <v>16.6666666666666</v>
+      </c>
+      <c r="M17">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18">
+        <v>95</v>
+      </c>
+      <c r="C18">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>75.862068965517196</v>
+      </c>
+      <c r="F18">
+        <v>17.241379310344801</v>
+      </c>
+      <c r="G18">
+        <v>21.739130434782599</v>
+      </c>
+      <c r="H18">
+        <v>11.4285714285714</v>
+      </c>
+      <c r="I18">
+        <v>49.090909090909001</v>
+      </c>
+      <c r="J18">
+        <v>23.636363636363601</v>
+      </c>
+      <c r="K18">
+        <v>25</v>
+      </c>
+      <c r="L18">
+        <v>17.3333333333333</v>
+      </c>
+      <c r="M18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19">
+        <v>98</v>
+      </c>
+      <c r="C19">
+        <v>80</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>74.107142857142804</v>
+      </c>
+      <c r="F19">
+        <v>32.142857142857103</v>
+      </c>
+      <c r="G19">
+        <v>21.739130434782599</v>
+      </c>
+      <c r="H19">
+        <v>11.1111111111111</v>
+      </c>
+      <c r="I19">
+        <v>57.692307692307601</v>
+      </c>
+      <c r="J19">
+        <v>42.307692307692299</v>
+      </c>
+      <c r="K19">
+        <v>25.925925925925899</v>
+      </c>
+      <c r="L19">
+        <v>17.567567567567501</v>
+      </c>
+      <c r="M19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20">
+        <v>86</v>
+      </c>
+      <c r="C20">
+        <v>77</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>55.932203389830498</v>
+      </c>
+      <c r="F20">
+        <v>44.067796610169403</v>
+      </c>
+      <c r="G20">
+        <v>17.647058823529399</v>
+      </c>
+      <c r="H20">
+        <v>11.25</v>
+      </c>
+      <c r="I20">
+        <v>44.927536231883998</v>
+      </c>
+      <c r="J20">
+        <v>23.188405797101399</v>
+      </c>
+      <c r="K20">
+        <v>34.146341463414601</v>
+      </c>
+      <c r="L20">
+        <v>15.730337078651599</v>
+      </c>
+      <c r="M20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>81</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>56.25</v>
+      </c>
+      <c r="F21">
+        <v>18.75</v>
+      </c>
+      <c r="G21">
+        <v>38.8888888888888</v>
+      </c>
+      <c r="H21">
+        <v>10.389610389610301</v>
+      </c>
+      <c r="I21">
+        <v>42.105263157894697</v>
+      </c>
+      <c r="J21">
+        <v>31.578947368421002</v>
+      </c>
+      <c r="K21">
+        <v>28.205128205128201</v>
+      </c>
+      <c r="L21">
+        <v>13.157894736842101</v>
+      </c>
+      <c r="M21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22">
+        <v>63</v>
+      </c>
+      <c r="C22">
+        <v>88</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>64.0625</v>
+      </c>
+      <c r="F22">
+        <v>10.9375</v>
+      </c>
+      <c r="G22">
+        <v>38.709677419354797</v>
+      </c>
+      <c r="H22">
+        <v>15.1898734177215</v>
+      </c>
+      <c r="I22">
+        <v>42.424242424242401</v>
+      </c>
+      <c r="J22">
+        <v>21.2121212121212</v>
+      </c>
+      <c r="K22">
+        <v>26.086956521739101</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23">
+        <v>88</v>
+      </c>
+      <c r="C23">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>62.686567164179102</v>
+      </c>
+      <c r="F23">
+        <v>8.9552238805970106</v>
+      </c>
+      <c r="G23">
+        <v>26.470588235294102</v>
+      </c>
+      <c r="H23">
+        <v>11.3924050632911</v>
+      </c>
+      <c r="I23">
+        <v>38</v>
+      </c>
+      <c r="J23">
+        <v>60</v>
+      </c>
+      <c r="K23">
+        <v>22.5</v>
+      </c>
+      <c r="L23">
+        <v>17.948717948717899</v>
+      </c>
+      <c r="M23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24">
+        <v>76</v>
+      </c>
+      <c r="C24">
+        <v>69</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="F24">
+        <v>27.7777777777777</v>
+      </c>
+      <c r="G24">
+        <v>26.6666666666666</v>
+      </c>
+      <c r="H24">
+        <v>17.808219178082101</v>
+      </c>
+      <c r="I24">
+        <v>46.774193548386997</v>
+      </c>
+      <c r="J24">
+        <v>25.806451612903199</v>
+      </c>
+      <c r="K24">
+        <v>43.902439024390198</v>
+      </c>
+      <c r="L24">
+        <v>15.8536585365853</v>
+      </c>
+      <c r="M24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25">
+        <v>95</v>
+      </c>
+      <c r="C25">
+        <v>70</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>62.318840579710098</v>
+      </c>
+      <c r="F25">
+        <v>15.9420289855072</v>
+      </c>
+      <c r="G25">
+        <v>34.285714285714199</v>
+      </c>
+      <c r="H25">
+        <v>12.9411764705882</v>
+      </c>
+      <c r="I25">
+        <v>44.827586206896498</v>
+      </c>
+      <c r="J25">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K25">
+        <v>17.1428571428571</v>
+      </c>
+      <c r="L25">
+        <v>11.6883116883116</v>
+      </c>
+      <c r="M25">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15186,8 +16328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014A5187-8487-6B43-B2DC-C9D7C4D53A32}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AQ3" activeCellId="3" sqref="AG3 AK3 AL3 AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17172,7 +18314,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AY1"/>
+      <selection activeCell="AQ3" activeCellId="3" sqref="AG3 AK3 AL3 AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19305,8 +20447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B5BAB0-4FF7-B941-BDCB-A0008CDF10C0}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AY1"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AQ3" activeCellId="3" sqref="AG3 AK3 AL3 AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21589,7 +22731,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AY1"/>
+      <selection activeCell="AN27" sqref="AN27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23300,7 +24442,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AY1"/>
+      <selection activeCell="AQ3" activeCellId="3" sqref="AG3 AK3 AL3 AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23779,7 +24921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A3AD5F-CA55-5543-A5D2-2CB940A1D982}">
   <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -26519,7 +27661,7 @@
   <dimension ref="A1:AZ3"/>
   <sheetViews>
     <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1:AZ1"/>
+      <selection activeCell="AR3" activeCellId="3" sqref="AH3 AL3 AM3 AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28513,7 +29655,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AY1"/>
+      <selection activeCell="AQ3" activeCellId="3" sqref="AG3 AK3 AL3 AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30796,7 +31938,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AY1"/>
+      <selection activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32780,8 +33922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2113C6FD-3964-754E-A4CA-CB648AF0B9FC}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AY1"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AQ3" activeCellId="3" sqref="AG3 AK3 AL3 AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34467,8 +35609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5884CB-BAC7-4644-91AA-B125D0CC3C0D}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AY1"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AQ3" activeCellId="3" sqref="AG3 AK3 AL3 AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39848,7 +40990,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AY1"/>
+      <selection activeCell="AQ3" activeCellId="3" sqref="AG3 AK3 AL3 AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42428,8 +43570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA4B12C-D297-CA4B-8C99-50368069FB3A}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AQ3" activeCellId="3" sqref="AG3 AK3 AL3 AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45009,8 +46151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165359E0-B56F-3E49-9229-1135889AD230}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AV23" sqref="AV23"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AQ3" activeCellId="3" sqref="AG3 AK3 AL3 AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47740,7 +48882,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4"/>
+      <selection activeCell="AQ3" activeCellId="3" sqref="AG3 AK3 AL3 AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49576,8 +50718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B82B357-5993-4E46-A975-3CC4A8811DB9}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50056,8 +51198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9F85E1-EBFE-614D-8343-627101264AF3}">
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AZ1"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AN23" sqref="AN23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51894,24 +53036,2238 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C87EAF-5F46-D643-A672-F9766C73D910}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AT3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>77</v>
+      </c>
+      <c r="D2">
+        <v>88</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>114.28571428571399</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>67</v>
+      </c>
+      <c r="I2">
+        <v>44.776119402985003</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>33</v>
+      </c>
+      <c r="L2">
+        <v>45.454545454545404</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>34</v>
+      </c>
+      <c r="O2">
+        <v>44.117647058823501</v>
+      </c>
+      <c r="P2">
+        <v>13</v>
+      </c>
+      <c r="Q2">
+        <v>14</v>
+      </c>
+      <c r="R2">
+        <v>92.857142857142804</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>29</v>
+      </c>
+      <c r="U2">
+        <v>35</v>
+      </c>
+      <c r="V2">
+        <v>21</v>
+      </c>
+      <c r="W2">
+        <v>12</v>
+      </c>
+      <c r="X2">
+        <v>12</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2">
+        <v>13</v>
+      </c>
+      <c r="AA2">
+        <v>77</v>
+      </c>
+      <c r="AB2">
+        <v>114.28571428571399</v>
+      </c>
+      <c r="AC2">
+        <v>94.805194805194802</v>
+      </c>
+      <c r="AD2">
+        <v>19.480519480519401</v>
+      </c>
+      <c r="AE2">
+        <v>84</v>
+      </c>
+      <c r="AF2">
+        <v>104.76190476190401</v>
+      </c>
+      <c r="AG2">
+        <v>55.9701492537313</v>
+      </c>
+      <c r="AH2">
+        <v>61.1111111111111</v>
+      </c>
+      <c r="AI2">
+        <v>49.253731343283498</v>
+      </c>
+      <c r="AJ2">
+        <v>50.746268656716403</v>
+      </c>
+      <c r="AK2">
+        <v>20.8955223880597</v>
+      </c>
+      <c r="AL2">
+        <v>16.2162162162162</v>
+      </c>
+      <c r="AM2">
+        <v>85.294117647058798</v>
+      </c>
+      <c r="AN2">
+        <v>49.295774647887299</v>
+      </c>
+      <c r="AO2">
+        <v>2</v>
+      </c>
+      <c r="AP2">
+        <v>1.75</v>
+      </c>
+      <c r="AQ2">
+        <v>14.285714285714199</v>
+      </c>
+      <c r="AR2">
+        <v>54</v>
+      </c>
+      <c r="AS2">
+        <v>88</v>
+      </c>
+      <c r="AT2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>77</v>
+      </c>
+      <c r="D3">
+        <v>73</v>
+      </c>
+      <c r="E3">
+        <v>-15</v>
+      </c>
+      <c r="F3">
+        <v>94.805194805194802</v>
+      </c>
+      <c r="G3">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <v>45</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>37</v>
+      </c>
+      <c r="L3">
+        <v>48.648648648648603</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>23</v>
+      </c>
+      <c r="O3">
+        <v>39.130434782608603</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>12</v>
+      </c>
+      <c r="R3">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>30</v>
+      </c>
+      <c r="U3">
+        <v>34</v>
+      </c>
+      <c r="V3">
+        <v>13</v>
+      </c>
+      <c r="W3">
+        <v>17</v>
+      </c>
+      <c r="X3">
+        <v>5</v>
+      </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>15</v>
+      </c>
+      <c r="AA3">
+        <v>77</v>
+      </c>
+      <c r="AB3">
+        <v>94.805194805194802</v>
+      </c>
+      <c r="AC3">
+        <v>114.28571428571399</v>
+      </c>
+      <c r="AD3">
+        <v>-19.480519480519401</v>
+      </c>
+      <c r="AE3">
+        <v>82</v>
+      </c>
+      <c r="AF3">
+        <v>89.024390243902403</v>
+      </c>
+      <c r="AG3">
+        <v>51.6666666666666</v>
+      </c>
+      <c r="AH3">
+        <v>56.153846153846096</v>
+      </c>
+      <c r="AI3">
+        <v>61.6666666666666</v>
+      </c>
+      <c r="AJ3">
+        <v>38.3333333333333</v>
+      </c>
+      <c r="AK3">
+        <v>20</v>
+      </c>
+      <c r="AL3">
+        <v>11.764705882352899</v>
+      </c>
+      <c r="AM3">
+        <v>81.081081081080995</v>
+      </c>
+      <c r="AN3">
+        <v>47.887323943661897</v>
+      </c>
+      <c r="AO3">
+        <v>-2</v>
+      </c>
+      <c r="AP3">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="AQ3">
+        <v>20.731707317073099</v>
+      </c>
+      <c r="AR3">
+        <v>21</v>
+      </c>
+      <c r="AS3">
+        <v>73</v>
+      </c>
+      <c r="AT3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02357BE8-617A-E646-BD02-DD0804956DAE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AW12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>-4</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>-1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>-1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>-1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>-1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>58.536585365853597</v>
+      </c>
+      <c r="AC2">
+        <v>100</v>
+      </c>
+      <c r="AD2">
+        <v>175</v>
+      </c>
+      <c r="AE2">
+        <v>-75</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>-1</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>-1</v>
+      </c>
+      <c r="AJ2">
+        <v>-1</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>-1</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>-1</v>
+      </c>
+      <c r="AT2">
+        <v>-1</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>19.6166666666666</v>
+      </c>
+      <c r="E3">
+        <v>41</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>100</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>83.602378929481702</v>
+      </c>
+      <c r="AC3">
+        <v>100</v>
+      </c>
+      <c r="AD3">
+        <v>100</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>8</v>
+      </c>
+      <c r="AG3">
+        <v>75</v>
+      </c>
+      <c r="AH3">
+        <v>18.604651162790699</v>
+      </c>
+      <c r="AI3">
+        <v>31.25</v>
+      </c>
+      <c r="AJ3">
+        <v>37.5</v>
+      </c>
+      <c r="AK3">
+        <v>37.5</v>
+      </c>
+      <c r="AL3">
+        <v>62.5</v>
+      </c>
+      <c r="AM3">
+        <v>12.5</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>7.6923076923076898</v>
+      </c>
+      <c r="AP3">
+        <v>2.8571428571428501</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>9.0909090909090899</v>
+      </c>
+      <c r="AS3">
+        <v>-1</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>2</v>
+      </c>
+      <c r="AV3">
+        <v>8</v>
+      </c>
+      <c r="AW3">
+        <v>19.512195121951201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>22.566666666666599</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>-1</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>70.901033973412098</v>
+      </c>
+      <c r="AC4">
+        <v>115</v>
+      </c>
+      <c r="AD4">
+        <v>97.560975609756099</v>
+      </c>
+      <c r="AE4">
+        <v>17.439024390243901</v>
+      </c>
+      <c r="AF4">
+        <v>8</v>
+      </c>
+      <c r="AG4">
+        <v>150</v>
+      </c>
+      <c r="AH4">
+        <v>17.7777777777777</v>
+      </c>
+      <c r="AI4">
+        <v>75</v>
+      </c>
+      <c r="AJ4">
+        <v>75</v>
+      </c>
+      <c r="AK4">
+        <v>25</v>
+      </c>
+      <c r="AL4">
+        <v>75</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>10.5263157894736</v>
+      </c>
+      <c r="AP4">
+        <v>5.1282051282051198</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>7.6923076923076898</v>
+      </c>
+      <c r="AS4">
+        <v>-1</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>2</v>
+      </c>
+      <c r="AV4">
+        <v>14</v>
+      </c>
+      <c r="AW4">
+        <v>30.434782608695599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>9.25</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>50</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>100</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <v>73.513513513513502</v>
+      </c>
+      <c r="AC5">
+        <v>117.64705882352899</v>
+      </c>
+      <c r="AD5">
+        <v>118.75</v>
+      </c>
+      <c r="AE5">
+        <v>-1.1029411764705901</v>
+      </c>
+      <c r="AF5">
+        <v>4</v>
+      </c>
+      <c r="AG5">
+        <v>100</v>
+      </c>
+      <c r="AH5">
+        <v>22.2222222222222</v>
+      </c>
+      <c r="AI5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="AJ5">
+        <v>50</v>
+      </c>
+      <c r="AK5">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="AL5">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="AM5">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>-1</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>4</v>
+      </c>
+      <c r="AW5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>36.683333333333302</v>
+      </c>
+      <c r="E6">
+        <v>72</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>44.4444444444444</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>50</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>8</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AB6">
+        <v>78.509768287142194</v>
+      </c>
+      <c r="AC6">
+        <v>122.222222222222</v>
+      </c>
+      <c r="AD6">
+        <v>87.5</v>
+      </c>
+      <c r="AE6">
+        <v>34.7222222222222</v>
+      </c>
+      <c r="AF6">
+        <v>13</v>
+      </c>
+      <c r="AG6">
+        <v>84.615384615384599</v>
+      </c>
+      <c r="AH6">
+        <v>16.455696202531598</v>
+      </c>
+      <c r="AI6">
+        <v>55.5555555555555</v>
+      </c>
+      <c r="AJ6">
+        <v>61.1111111111111</v>
+      </c>
+      <c r="AK6">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="AL6">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="AM6">
+        <v>22.2222222222222</v>
+      </c>
+      <c r="AN6">
+        <v>2.9411764705882302</v>
+      </c>
+      <c r="AO6">
+        <v>6.0606060606060597</v>
+      </c>
+      <c r="AP6">
+        <v>4.4776119402985</v>
+      </c>
+      <c r="AQ6">
+        <v>2</v>
+      </c>
+      <c r="AR6">
+        <v>30.769230769230699</v>
+      </c>
+      <c r="AS6">
+        <v>2</v>
+      </c>
+      <c r="AT6">
+        <v>30.769230769230699</v>
+      </c>
+      <c r="AU6">
+        <v>22</v>
+      </c>
+      <c r="AV6">
+        <v>33</v>
+      </c>
+      <c r="AW6">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>34.733333333333299</v>
+      </c>
+      <c r="E7">
+        <v>68</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>9</v>
+      </c>
+      <c r="P7">
+        <v>44.4444444444444</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>7</v>
+      </c>
+      <c r="V7">
+        <v>8</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <v>78.310940499040299</v>
+      </c>
+      <c r="AC7">
+        <v>116.17647058823501</v>
+      </c>
+      <c r="AD7">
+        <v>86.567164179104395</v>
+      </c>
+      <c r="AE7">
+        <v>29.609306409130799</v>
+      </c>
+      <c r="AF7">
+        <v>17</v>
+      </c>
+      <c r="AG7">
+        <v>129.41176470588201</v>
+      </c>
+      <c r="AH7">
+        <v>22.6666666666666</v>
+      </c>
+      <c r="AI7">
+        <v>62.5</v>
+      </c>
+      <c r="AJ7">
+        <v>64.705882352941103</v>
+      </c>
+      <c r="AK7">
+        <v>43.75</v>
+      </c>
+      <c r="AL7">
+        <v>56.25</v>
+      </c>
+      <c r="AM7">
+        <v>12.5</v>
+      </c>
+      <c r="AN7">
+        <v>2.9411764705882302</v>
+      </c>
+      <c r="AO7">
+        <v>21.875</v>
+      </c>
+      <c r="AP7">
+        <v>12.1212121212121</v>
+      </c>
+      <c r="AQ7">
+        <v>4</v>
+      </c>
+      <c r="AR7">
+        <v>5.2631578947368398</v>
+      </c>
+      <c r="AS7">
+        <v>-1</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>2</v>
+      </c>
+      <c r="AV7">
+        <v>24</v>
+      </c>
+      <c r="AW7">
+        <v>30.379746835443001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8">
+        <v>8.5</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-5</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>-1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>-1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>70.588235294117595</v>
+      </c>
+      <c r="AC8">
+        <v>80</v>
+      </c>
+      <c r="AD8">
+        <v>121.428571428571</v>
+      </c>
+      <c r="AE8">
+        <v>-41.428571428571402</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>6.6666666666666599</v>
+      </c>
+      <c r="AI8">
+        <v>-1</v>
+      </c>
+      <c r="AJ8">
+        <v>-1</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>12.5</v>
+      </c>
+      <c r="AP8">
+        <v>7.1428571428571397</v>
+      </c>
+      <c r="AQ8">
+        <v>-2</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>100</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>1.2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>-1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>-1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>-1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>250</v>
+      </c>
+      <c r="AE9">
+        <v>-250</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>-1</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>-1</v>
+      </c>
+      <c r="AJ9">
+        <v>-1</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>-1</v>
+      </c>
+      <c r="AT9">
+        <v>-1</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>33.616666666666603</v>
+      </c>
+      <c r="E10">
+        <v>66</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>38.8888888888888</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>44.4444444444444</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>-1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>6</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <v>78.5324739712444</v>
+      </c>
+      <c r="AC10">
+        <v>115.151515151515</v>
+      </c>
+      <c r="AD10">
+        <v>92.424242424242394</v>
+      </c>
+      <c r="AE10">
+        <v>22.727272727272702</v>
+      </c>
+      <c r="AF10">
+        <v>21</v>
+      </c>
+      <c r="AG10">
+        <v>80.952380952380906</v>
+      </c>
+      <c r="AH10">
+        <v>28.7671232876712</v>
+      </c>
+      <c r="AI10">
+        <v>47.2222222222222</v>
+      </c>
+      <c r="AJ10">
+        <v>47.2222222222222</v>
+      </c>
+      <c r="AK10">
+        <v>50</v>
+      </c>
+      <c r="AL10">
+        <v>50</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>2.9411764705882302</v>
+      </c>
+      <c r="AO10">
+        <v>7.4074074074074003</v>
+      </c>
+      <c r="AP10">
+        <v>4.9180327868852398</v>
+      </c>
+      <c r="AQ10">
+        <v>4</v>
+      </c>
+      <c r="AR10">
+        <v>31.578947368421002</v>
+      </c>
+      <c r="AS10">
+        <v>2</v>
+      </c>
+      <c r="AT10">
+        <v>14.285714285714199</v>
+      </c>
+      <c r="AU10">
+        <v>15</v>
+      </c>
+      <c r="AV10">
+        <v>32</v>
+      </c>
+      <c r="AW10">
+        <v>42.105263157894697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>30.5833333333333</v>
+      </c>
+      <c r="E11">
+        <v>61</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>80</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>75</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>100</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>100</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>11</v>
+      </c>
+      <c r="V11">
+        <v>14</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>79.782016348773794</v>
+      </c>
+      <c r="AC11">
+        <v>122.950819672131</v>
+      </c>
+      <c r="AD11">
+        <v>81.6666666666666</v>
+      </c>
+      <c r="AE11">
+        <v>41.284153005464397</v>
+      </c>
+      <c r="AF11">
+        <v>11</v>
+      </c>
+      <c r="AG11">
+        <v>145.45454545454501</v>
+      </c>
+      <c r="AH11">
+        <v>16.417910447761098</v>
+      </c>
+      <c r="AI11">
+        <v>90</v>
+      </c>
+      <c r="AJ11">
+        <v>100</v>
+      </c>
+      <c r="AK11">
+        <v>80</v>
+      </c>
+      <c r="AL11">
+        <v>20</v>
+      </c>
+      <c r="AM11">
+        <v>140</v>
+      </c>
+      <c r="AN11">
+        <v>10.714285714285699</v>
+      </c>
+      <c r="AO11">
+        <v>36.6666666666666</v>
+      </c>
+      <c r="AP11">
+        <v>24.137931034482701</v>
+      </c>
+      <c r="AQ11">
+        <v>2</v>
+      </c>
+      <c r="AR11">
+        <v>19.047619047619001</v>
+      </c>
+      <c r="AS11">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="AT11">
+        <v>27.272727272727199</v>
+      </c>
+      <c r="AU11">
+        <v>11</v>
+      </c>
+      <c r="AV11">
+        <v>27</v>
+      </c>
+      <c r="AW11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>1.2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>-5</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>-1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>-1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>-1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>250</v>
+      </c>
+      <c r="AE12">
+        <v>-250</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>-1</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>-1</v>
+      </c>
+      <c r="AJ12">
+        <v>-1</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>-1</v>
+      </c>
+      <c r="AT12">
+        <v>-1</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -54353,8 +57709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EDF7A7-6C1F-A540-89D9-6F22E4853849}">
   <dimension ref="A1:AX3"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AT1" sqref="AT1:AX1"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AP3" activeCellId="3" sqref="AF3 AJ3 AK3 AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -56181,7 +59537,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AY1"/>
+      <selection activeCell="AQ3" activeCellId="3" sqref="AG3 AK3 AL3 AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
